--- a/data/GreatLink/Great Eastern-Lion Dynamic Balanced.xlsx
+++ b/data/GreatLink/Great Eastern-Lion Dynamic Balanced.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid515807"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid627263"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/Great Eastern-Lion Dynamic Balanced.xlsx
+++ b/data/GreatLink/Great Eastern-Lion Dynamic Balanced.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid61393"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid70394"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
